--- a/data/trans_orig/P16A03-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>27559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18348</v>
+        <v>17988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41942</v>
+        <v>40724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05816938499075656</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03872753271839689</v>
+        <v>0.03796774366779342</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08852750278968194</v>
+        <v>0.08595531315897846</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>14582</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8579</v>
+        <v>8019</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23096</v>
+        <v>23024</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04754792249168663</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02797329350331305</v>
+        <v>0.02614807383926318</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07531082736796278</v>
+        <v>0.07507464719308111</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -786,19 +786,19 @@
         <v>42141</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31600</v>
+        <v>30063</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57997</v>
+        <v>56622</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05399568298717386</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04048965395345829</v>
+        <v>0.03852023753352459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07431217239991157</v>
+        <v>0.07254922628176384</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>446217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>431834</v>
+        <v>433052</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>455428</v>
+        <v>455788</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9418306150092435</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9114724972103181</v>
+        <v>0.914044686841021</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9612724672816031</v>
+        <v>0.9620322563322063</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>283</v>
@@ -836,19 +836,19 @@
         <v>292098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283584</v>
+        <v>283656</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298101</v>
+        <v>298661</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9524520775083134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9246891726320372</v>
+        <v>0.9249253528069188</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.972026706496687</v>
+        <v>0.9738519261607367</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>714</v>
@@ -857,19 +857,19 @@
         <v>738316</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>722460</v>
+        <v>723835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>748857</v>
+        <v>750394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9460043170128262</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9256878276000884</v>
+        <v>0.927450773718236</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9595103460465416</v>
+        <v>0.9614797624664754</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>3488</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10921</v>
+        <v>10345</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009506396397644471</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002397458495899692</v>
+        <v>0.002410185306964306</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02976333537915999</v>
+        <v>0.02819239771228237</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -982,19 +982,19 @@
         <v>13803</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7976</v>
+        <v>6940</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22898</v>
+        <v>22103</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03711778064296039</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02144870994781383</v>
+        <v>0.01866207159422171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06157723957773242</v>
+        <v>0.05943914046721915</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1003,19 +1003,19 @@
         <v>17291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10309</v>
+        <v>10129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27918</v>
+        <v>29433</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02340422735640726</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01395410783581419</v>
+        <v>0.01371031689505773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03778780736591214</v>
+        <v>0.03983894395329116</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>363446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>356013</v>
+        <v>356589</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366054</v>
+        <v>366050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9904936036023555</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9702366646208406</v>
+        <v>0.9718076022877173</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9976025415041003</v>
+        <v>0.9975898146930356</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -1053,19 +1053,19 @@
         <v>358062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>348967</v>
+        <v>349762</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363889</v>
+        <v>364925</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9628822193570397</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9384227604222668</v>
+        <v>0.9405608595327811</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.978551290052186</v>
+        <v>0.9813379284057784</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -1074,19 +1074,19 @@
         <v>721508</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>710881</v>
+        <v>709366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>728490</v>
+        <v>728670</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9765957726435928</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9622121926340879</v>
+        <v>0.9601610560467089</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9860458921641859</v>
+        <v>0.9862896831049424</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7132</v>
+        <v>7575</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21896</v>
+        <v>22862</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02533133453200589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01314900648333634</v>
+        <v>0.01396537835778968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04036960116036765</v>
+        <v>0.04215018940567485</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>12921</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6779</v>
+        <v>7272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21556</v>
+        <v>21155</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07700991148233022</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04040118237005597</v>
+        <v>0.0433444369399027</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1284759333718525</v>
+        <v>0.1260879450165621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1220,19 +1220,19 @@
         <v>26660</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17395</v>
+        <v>17785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37713</v>
+        <v>37363</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03754069002479638</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02449454612564569</v>
+        <v>0.02504393284581623</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05310433576900944</v>
+        <v>0.05261091921268227</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>528650</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520493</v>
+        <v>519527</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535257</v>
+        <v>534814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9746686654679941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9596303988396325</v>
+        <v>0.9578498105943251</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9868509935166636</v>
+        <v>0.9860346216422102</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -1270,19 +1270,19 @@
         <v>154861</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146226</v>
+        <v>146627</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161003</v>
+        <v>160510</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9229900885176698</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8715240666281483</v>
+        <v>0.873912054983438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.959598817629944</v>
+        <v>0.9566555630600975</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>669</v>
@@ -1291,19 +1291,19 @@
         <v>683511</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>672458</v>
+        <v>672808</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>692776</v>
+        <v>692386</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9624593099752036</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9468956642309906</v>
+        <v>0.9473890807873175</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9755054538743543</v>
+        <v>0.9749560671541837</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>19428</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11254</v>
+        <v>11591</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30188</v>
+        <v>29868</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01568875008546359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009088095266318281</v>
+        <v>0.009360132940526983</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02437754688466616</v>
+        <v>0.02411955524859462</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1416,19 +1416,19 @@
         <v>31939</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22861</v>
+        <v>22502</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44920</v>
+        <v>45601</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04471457501688062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03200604078700619</v>
+        <v>0.03150320647236746</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06288829025617164</v>
+        <v>0.06384113952152698</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -1437,19 +1437,19 @@
         <v>51367</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38100</v>
+        <v>39069</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67065</v>
+        <v>67303</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02630665003799183</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01951212314927839</v>
+        <v>0.02000835108387152</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03434640463228669</v>
+        <v>0.03446788598887147</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1218906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1208146</v>
+        <v>1208466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1227080</v>
+        <v>1226743</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9843112499145364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9756224531153339</v>
+        <v>0.9758804447514055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9909119047336821</v>
+        <v>0.9906398670594733</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>662</v>
@@ -1487,19 +1487,19 @@
         <v>682346</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>669365</v>
+        <v>668684</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>691424</v>
+        <v>691783</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9552854249831194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9371117097438284</v>
+        <v>0.9361588604784734</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.967993959212994</v>
+        <v>0.9684967935276327</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1867</v>
@@ -1508,19 +1508,19 @@
         <v>1901253</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1885555</v>
+        <v>1885317</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1914520</v>
+        <v>1913551</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9736933499620082</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9656535953677133</v>
+        <v>0.9655321140111286</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9804878768507216</v>
+        <v>0.9799916489161286</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8124</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3772</v>
+        <v>3404</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15672</v>
+        <v>15319</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.023241358096343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0107914977811217</v>
+        <v>0.009738456713782479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04483744706990209</v>
+        <v>0.04382572221760711</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1633,19 +1633,19 @@
         <v>20456</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12916</v>
+        <v>12855</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30774</v>
+        <v>32686</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03596603039099124</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0227089320739556</v>
+        <v>0.0226025109206045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05410717538057316</v>
+        <v>0.05746997803638861</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -1654,19 +1654,19 @@
         <v>28579</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19222</v>
+        <v>19470</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41098</v>
+        <v>41767</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03112251670600313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02093226876343704</v>
+        <v>0.02120269068392455</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0447553002706095</v>
+        <v>0.04548299959853216</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>341413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>333865</v>
+        <v>334218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>345765</v>
+        <v>346133</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.976758641903657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9551625529300979</v>
+        <v>0.9561742777823929</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9892085022188783</v>
+        <v>0.9902615432862175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>518</v>
@@ -1704,19 +1704,19 @@
         <v>548296</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>537978</v>
+        <v>536066</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>555836</v>
+        <v>555897</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9640339696090088</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9458928246194268</v>
+        <v>0.9425300219636115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9772910679260445</v>
+        <v>0.9773974890793955</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>849</v>
@@ -1725,19 +1725,19 @@
         <v>889710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>877191</v>
+        <v>876522</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>899067</v>
+        <v>898819</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9688774832939969</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9552446997293905</v>
+        <v>0.9545170004014678</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9790677312365631</v>
+        <v>0.9787973093160754</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3857</v>
+        <v>4683</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003147868935369935</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01293415778885535</v>
+        <v>0.01570254383981652</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -1850,19 +1850,19 @@
         <v>85986</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68085</v>
+        <v>69807</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104875</v>
+        <v>105666</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06885678905997017</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05452181337296391</v>
+        <v>0.05590077026070545</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08398337715343387</v>
+        <v>0.08461644616106913</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1871,19 +1871,19 @@
         <v>86924</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69614</v>
+        <v>71005</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106719</v>
+        <v>106603</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05619037798755147</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04500047488767908</v>
+        <v>0.045899886268141</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06898640254965425</v>
+        <v>0.068911305408366</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>297262</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>294344</v>
+        <v>293518</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.9968521310646301</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9870658422111429</v>
+        <v>0.9842974561601835</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1162774</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1143885</v>
+        <v>1143094</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1180675</v>
+        <v>1178953</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9311432109400298</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9160166228465662</v>
+        <v>0.915383553838931</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9454781866270362</v>
+        <v>0.9440992297392946</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1459</v>
@@ -1942,19 +1942,19 @@
         <v>1460036</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1440241</v>
+        <v>1440357</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1477346</v>
+        <v>1475955</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9438096220124486</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9310135974503462</v>
+        <v>0.931088694591634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.954999525112321</v>
+        <v>0.9541001137318591</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>73277</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57323</v>
+        <v>56646</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92665</v>
+        <v>91680</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02241463045395441</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01753438806368559</v>
+        <v>0.01732731872158568</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02834498404723662</v>
+        <v>0.02804366954749951</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>178</v>
@@ -2067,19 +2067,19 @@
         <v>179686</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>157018</v>
+        <v>152692</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>210331</v>
+        <v>204338</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05319105554810837</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04648097057603597</v>
+        <v>0.04520035991703156</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06226267874950647</v>
+        <v>0.06048846638279007</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>247</v>
@@ -2088,19 +2088,19 @@
         <v>252963</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>225079</v>
+        <v>222673</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>286902</v>
+        <v>286895</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03805506277829431</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03386024879067379</v>
+        <v>0.03349822978046198</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04316077593321774</v>
+        <v>0.04315970716529956</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3195895</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3176507</v>
+        <v>3177492</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3211849</v>
+        <v>3212526</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9775853695460456</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9716550159527636</v>
+        <v>0.9719563304525008</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9824656119363145</v>
+        <v>0.9826726812784143</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3118</v>
@@ -2138,19 +2138,19 @@
         <v>3198438</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3167793</v>
+        <v>3173786</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3221106</v>
+        <v>3225432</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9468089444518917</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9377373212504934</v>
+        <v>0.9395115336172095</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9535190294239639</v>
+        <v>0.9547996400829684</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6255</v>
@@ -2159,19 +2159,19 @@
         <v>6394333</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6360394</v>
+        <v>6360401</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6422217</v>
+        <v>6424623</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9619449372217057</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9568392240667821</v>
+        <v>0.9568402928347004</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9661397512093262</v>
+        <v>0.966501770219538</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>5669</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1902</v>
+        <v>1937</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13051</v>
+        <v>12952</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01296513737128653</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004350288048560584</v>
+        <v>0.004431416159611607</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0298515527626249</v>
+        <v>0.02962436477685862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2526,19 +2526,19 @@
         <v>20501</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12114</v>
+        <v>12845</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30108</v>
+        <v>31276</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06519641414133052</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03852362516297647</v>
+        <v>0.04084777552375249</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09574701996886772</v>
+        <v>0.09946074016738751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2547,19 +2547,19 @@
         <v>26170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16868</v>
+        <v>17065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37853</v>
+        <v>39094</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03481575759269845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02244109848227229</v>
+        <v>0.02270327246918505</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05035885615440225</v>
+        <v>0.05200983962605697</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>431542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>424160</v>
+        <v>424259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435309</v>
+        <v>435274</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9870348626287134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9701484472373749</v>
+        <v>0.9703756352231414</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9956497119514395</v>
+        <v>0.9955685838403884</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>264</v>
@@ -2597,19 +2597,19 @@
         <v>293953</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>284346</v>
+        <v>283178</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302340</v>
+        <v>301609</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9348035858586695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9042529800311323</v>
+        <v>0.9005392598326127</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9614763748370236</v>
+        <v>0.9591522244762476</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>663</v>
@@ -2618,19 +2618,19 @@
         <v>725495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>713812</v>
+        <v>712571</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>734797</v>
+        <v>734600</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9651842424073016</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9496411438455977</v>
+        <v>0.947990160373943</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9775589015177277</v>
+        <v>0.977296727530815</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>6225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1804</v>
+        <v>1978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15920</v>
+        <v>16486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01492770537932445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004327093635163402</v>
+        <v>0.004742865540780346</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03817570633158061</v>
+        <v>0.03953222689044598</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2743,19 +2743,19 @@
         <v>25570</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16883</v>
+        <v>16244</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38039</v>
+        <v>37378</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07649899989813645</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.050510784604904</v>
+        <v>0.04859753990898067</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1138027732097299</v>
+        <v>0.1118251565963593</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -2764,19 +2764,19 @@
         <v>31795</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20686</v>
+        <v>21714</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47325</v>
+        <v>45000</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04232169270635664</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02753485773285617</v>
+        <v>0.02890304744616826</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0629935695879405</v>
+        <v>0.0598987644505495</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>410793</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>401098</v>
+        <v>400532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415214</v>
+        <v>415040</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9850722946206756</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9618242936684196</v>
+        <v>0.9604677731095542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9956729063648366</v>
+        <v>0.9952571344592197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>280</v>
@@ -2814,19 +2814,19 @@
         <v>308680</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296211</v>
+        <v>296872</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317367</v>
+        <v>318006</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9235010001018635</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8861972267902698</v>
+        <v>0.8881748434036406</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9494892153950958</v>
+        <v>0.9514024600910191</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>649</v>
@@ -2835,19 +2835,19 @@
         <v>719473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>703943</v>
+        <v>706268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730582</v>
+        <v>729554</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9576783072936433</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9370064304120593</v>
+        <v>0.9401012355494502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9724651422671438</v>
+        <v>0.9710969525538315</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>11413</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5892</v>
+        <v>5054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22273</v>
+        <v>20768</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01822211869333207</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009406989435920509</v>
+        <v>0.008069654459566367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03556124708541991</v>
+        <v>0.03315791356815765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -2960,19 +2960,19 @@
         <v>10825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5449</v>
+        <v>5360</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19607</v>
+        <v>19093</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04196592280814459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02112491451626009</v>
+        <v>0.02078019624614955</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07601344069481553</v>
+        <v>0.07402006606620093</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -2981,19 +2981,19 @@
         <v>22238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13399</v>
+        <v>13963</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34279</v>
+        <v>34623</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02514803894516025</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01515250063893096</v>
+        <v>0.01579054506251847</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03876477901389854</v>
+        <v>0.03915381776496567</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>614925</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>604065</v>
+        <v>605570</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>620446</v>
+        <v>621284</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9817778813066679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.96443875291458</v>
+        <v>0.9668420864318423</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9905930105640794</v>
+        <v>0.9919303455404337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>232</v>
@@ -3031,19 +3031,19 @@
         <v>247113</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>238331</v>
+        <v>238845</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>252489</v>
+        <v>252578</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9580340771918554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9239865593051846</v>
+        <v>0.9259799339337992</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9788750854837399</v>
+        <v>0.9792198037538505</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>812</v>
@@ -3052,19 +3052,19 @@
         <v>862038</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>849997</v>
+        <v>849653</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>870877</v>
+        <v>870313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9748519610548397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9612352209861013</v>
+        <v>0.9608461822350346</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9848474993610689</v>
+        <v>0.9842094549374818</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>12368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6476</v>
+        <v>6989</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20035</v>
+        <v>21414</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01068668202779072</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005595724876393323</v>
+        <v>0.006038649230885316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01731200134229855</v>
+        <v>0.01850308365914154</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -3177,19 +3177,19 @@
         <v>45794</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33194</v>
+        <v>32813</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59606</v>
+        <v>61022</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05981178796918855</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04335481762060003</v>
+        <v>0.04285692298550132</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07785098170616034</v>
+        <v>0.07970002072601871</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -3198,19 +3198,19 @@
         <v>58162</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45538</v>
+        <v>44382</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78427</v>
+        <v>74037</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03024628521293949</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02368098621787779</v>
+        <v>0.02307981453164838</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04078438706909195</v>
+        <v>0.03850162451673339</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1144947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1137280</v>
+        <v>1135901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1150839</v>
+        <v>1150326</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9893133179722092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9826879986577015</v>
+        <v>0.9814969163408578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.994404275123607</v>
+        <v>0.9939613507691146</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>668</v>
@@ -3248,19 +3248,19 @@
         <v>719849</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>706037</v>
+        <v>704621</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>732449</v>
+        <v>732830</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9401882120308115</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9221490182938398</v>
+        <v>0.920299979273981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9566451823794</v>
+        <v>0.9571430770144986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1737</v>
@@ -3269,19 +3269,19 @@
         <v>1864797</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1844532</v>
+        <v>1848922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1877421</v>
+        <v>1878577</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9697537147870605</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9592156129309087</v>
+        <v>0.9614983754832667</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9763190137821225</v>
+        <v>0.9769201854683517</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>6965</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2963</v>
+        <v>2998</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14208</v>
+        <v>13711</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01364054713924549</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005802342834924377</v>
+        <v>0.005872283793735066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02782710494131414</v>
+        <v>0.02685241469458262</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -3394,19 +3394,19 @@
         <v>52275</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39136</v>
+        <v>38833</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67964</v>
+        <v>69113</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06893061100989947</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05160527412712181</v>
+        <v>0.05120586043956913</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08961925984049848</v>
+        <v>0.0911335745765539</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -3415,19 +3415,19 @@
         <v>59240</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45285</v>
+        <v>45060</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76667</v>
+        <v>75226</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04668341093252414</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03568628659245342</v>
+        <v>0.03550967315597057</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06041679008074354</v>
+        <v>0.05928161292277215</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>503631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>496388</v>
+        <v>496885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>507633</v>
+        <v>507598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9863594528607545</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9721728950586856</v>
+        <v>0.9731475853054172</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9941976571650756</v>
+        <v>0.9941277162062649</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>651</v>
@@ -3465,19 +3465,19 @@
         <v>706093</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>690404</v>
+        <v>689255</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>719232</v>
+        <v>719535</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9310693889901005</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9103807401595014</v>
+        <v>0.9088664254234461</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9483947258728781</v>
+        <v>0.9487941395604309</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1131</v>
@@ -3486,19 +3486,19 @@
         <v>1209724</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1192297</v>
+        <v>1193738</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1223679</v>
+        <v>1223904</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9533165890674759</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9395832099192563</v>
+        <v>0.9407183870772277</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9643137134075462</v>
+        <v>0.9644903268440292</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>2916</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7843</v>
+        <v>9175</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0109693899044876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003518432196924714</v>
+        <v>0.003535353415441588</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02950364940947967</v>
+        <v>0.03451480068042912</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -3611,19 +3611,19 @@
         <v>56040</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42656</v>
+        <v>41643</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72825</v>
+        <v>72623</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05070300287140624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03859420752711217</v>
+        <v>0.03767744030970133</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06588951202435858</v>
+        <v>0.06570696829476912</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -3632,19 +3632,19 @@
         <v>58956</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44186</v>
+        <v>44103</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75890</v>
+        <v>76728</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04299908262626834</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0322270330047071</v>
+        <v>0.0321662197734017</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05535010505045435</v>
+        <v>0.05596109761394934</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>262925</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257998</v>
+        <v>256666</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264906</v>
+        <v>264901</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9890306100955124</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9704963505905204</v>
+        <v>0.9654851993195718</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964815678030753</v>
+        <v>0.9964646465845585</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>989</v>
@@ -3682,19 +3682,19 @@
         <v>1049216</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1032431</v>
+        <v>1032633</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1062600</v>
+        <v>1063613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9492969971285937</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9341104879756414</v>
+        <v>0.9342930317052309</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9614057924728878</v>
+        <v>0.962322559690299</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1250</v>
@@ -3703,19 +3703,19 @@
         <v>1312142</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1295208</v>
+        <v>1294370</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1326912</v>
+        <v>1326995</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9570009173737317</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9446498949495458</v>
+        <v>0.9440389023860506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9677729669952929</v>
+        <v>0.9678337802265983</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>45556</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32383</v>
+        <v>32425</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62612</v>
+        <v>62683</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01334251640759195</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009484454992449884</v>
+        <v>0.009496713056682704</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0183379402207212</v>
+        <v>0.01835883993933882</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>193</v>
@@ -3828,19 +3828,19 @@
         <v>211005</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>184325</v>
+        <v>183688</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>242582</v>
+        <v>242783</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05967481551467105</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05212931142543024</v>
+        <v>0.05194930819233877</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06860519952361653</v>
+        <v>0.06866223017774958</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>233</v>
@@ -3849,19 +3849,19 @@
         <v>256560</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>222888</v>
+        <v>223355</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>291016</v>
+        <v>290894</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03691394629581942</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03206920549737703</v>
+        <v>0.03213637890365271</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04187137224542844</v>
+        <v>0.04185383889554891</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3368763</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3351707</v>
+        <v>3351636</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3381936</v>
+        <v>3381894</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.986657483592408</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.981662059779279</v>
+        <v>0.9816411600606607</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9905155450075505</v>
+        <v>0.9905032869433167</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3084</v>
@@ -3899,19 +3899,19 @@
         <v>3324905</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3293328</v>
+        <v>3293127</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3351585</v>
+        <v>3352222</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.940325184485329</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9313948004763838</v>
+        <v>0.9313377698222505</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9478706885745698</v>
+        <v>0.9480506918076612</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6242</v>
@@ -3920,19 +3920,19 @@
         <v>6693669</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6659213</v>
+        <v>6659335</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6727341</v>
+        <v>6726874</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9630860537041805</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9581286277545719</v>
+        <v>0.9581461611044514</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9679307945026231</v>
+        <v>0.9678636210963476</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>5284</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1982</v>
+        <v>2098</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11987</v>
+        <v>11917</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01231330710105428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004619577818454203</v>
+        <v>0.004889027147942825</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02793633079378973</v>
+        <v>0.02777343782788979</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4287,19 +4287,19 @@
         <v>10626</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5062</v>
+        <v>5280</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19508</v>
+        <v>18044</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03061660279149849</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01458670607973462</v>
+        <v>0.01521366541378415</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0562101344463975</v>
+        <v>0.05199087722467107</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -4308,19 +4308,19 @@
         <v>15909</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9415</v>
+        <v>9052</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26520</v>
+        <v>25528</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02049764493215414</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01213004122473038</v>
+        <v>0.0116631107737016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03416894063666955</v>
+        <v>0.03289053087799858</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>423808</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417105</v>
+        <v>417175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427110</v>
+        <v>426994</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9876866928989457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9720636692062102</v>
+        <v>0.9722265621721102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9953804221815459</v>
+        <v>0.9951109728520572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>322</v>
@@ -4358,19 +4358,19 @@
         <v>336429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>327547</v>
+        <v>329011</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>341993</v>
+        <v>341775</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9693833972085015</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9437898655536026</v>
+        <v>0.9480091227753289</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9854132939202656</v>
+        <v>0.9847863345862158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>713</v>
@@ -4379,19 +4379,19 @@
         <v>760238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>749627</v>
+        <v>750619</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>766732</v>
+        <v>767095</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9795023550678459</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9658310593633302</v>
+        <v>0.9671094691220012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9878699587752696</v>
+        <v>0.9883368892262984</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>5904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2072</v>
+        <v>2119</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11763</v>
+        <v>12648</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01565186756686101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005493068108148549</v>
+        <v>0.005616686519870767</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03118376662572508</v>
+        <v>0.03352828413494495</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -4504,19 +4504,19 @@
         <v>17161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9970</v>
+        <v>10768</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27003</v>
+        <v>27373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04609686069221446</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02678192664918963</v>
+        <v>0.02892620898434166</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07253462112003613</v>
+        <v>0.07352812407755234</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -4525,19 +4525,19 @@
         <v>23065</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14918</v>
+        <v>14531</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35979</v>
+        <v>34598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03077375297673889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01990366344115567</v>
+        <v>0.01938750486107774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04800356997605498</v>
+        <v>0.04616154397320781</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>371323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365464</v>
+        <v>364579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375155</v>
+        <v>375108</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.984348132433139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9688162333742749</v>
+        <v>0.9664717158650551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9945069318918514</v>
+        <v>0.9943833134801292</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -4575,19 +4575,19 @@
         <v>355112</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>345270</v>
+        <v>344900</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362303</v>
+        <v>361505</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9539031393077856</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9274653788799641</v>
+        <v>0.9264718759224478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9732180733508103</v>
+        <v>0.9710737910156584</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>684</v>
@@ -4596,19 +4596,19 @@
         <v>726435</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>713521</v>
+        <v>714902</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>734582</v>
+        <v>734969</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9692262470232611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9519964300239449</v>
+        <v>0.9538384560267922</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9800963365588443</v>
+        <v>0.9806124951389222</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>5053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1915</v>
+        <v>1379</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11209</v>
+        <v>11471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009680837099632527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003668644964946569</v>
+        <v>0.002641819362250289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02147698902409511</v>
+        <v>0.02197820749753041</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4721,19 +4721,19 @@
         <v>9499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4122</v>
+        <v>4532</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16798</v>
+        <v>17166</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0571792589441489</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0248102819723987</v>
+        <v>0.02728158986162091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1011183903957463</v>
+        <v>0.1033351558277675</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -4742,19 +4742,19 @@
         <v>14551</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8024</v>
+        <v>8071</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23381</v>
+        <v>24593</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02114908200745326</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01166201993469918</v>
+        <v>0.01173106807336991</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03398202404646879</v>
+        <v>0.03574423059586831</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>516861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>510705</v>
+        <v>510443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519999</v>
+        <v>520535</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9903191629003675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.978523010975905</v>
+        <v>0.9780217925024695</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9963313550350534</v>
+        <v>0.9973581806377485</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>144</v>
@@ -4792,19 +4792,19 @@
         <v>156624</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149325</v>
+        <v>148957</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162001</v>
+        <v>161591</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9428207410558511</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8988816096042538</v>
+        <v>0.896664844172232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9751897180276013</v>
+        <v>0.9727184101383787</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -4813,19 +4813,19 @@
         <v>673485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>664655</v>
+        <v>663443</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680012</v>
+        <v>679965</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9788509179925468</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9660179759535309</v>
+        <v>0.9642557694041317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9883379800653008</v>
+        <v>0.9882689319266301</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>18633</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11315</v>
+        <v>11013</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29356</v>
+        <v>29398</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01620778877814082</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009842092291270662</v>
+        <v>0.009579896074206073</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02553482696059726</v>
+        <v>0.02557118674534889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -4938,19 +4938,19 @@
         <v>32912</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22475</v>
+        <v>23007</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46472</v>
+        <v>46476</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03985159658989364</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02721359091123493</v>
+        <v>0.02785770954860437</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05627051402305615</v>
+        <v>0.05627436367445048</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -4959,19 +4959,19 @@
         <v>51546</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36958</v>
+        <v>38053</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67725</v>
+        <v>67199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02609222786882559</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01870827390094508</v>
+        <v>0.01926251035048003</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03428238984842652</v>
+        <v>0.03401582995549923</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1131005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1120282</v>
+        <v>1120240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1138323</v>
+        <v>1138625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9837922112218592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9744651730394027</v>
+        <v>0.9744288132546509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.990157907708729</v>
+        <v>0.9904201039257939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>768</v>
@@ -5009,19 +5009,19 @@
         <v>792964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>779404</v>
+        <v>779400</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>803401</v>
+        <v>802869</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9601484034101063</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9437294859769438</v>
+        <v>0.9437256363255503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9727864090887652</v>
+        <v>0.9721422904513957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1853</v>
@@ -5030,19 +5030,19 @@
         <v>1923968</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1907789</v>
+        <v>1908315</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1938556</v>
+        <v>1937461</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9739077721311744</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9657176101515732</v>
+        <v>0.9659841700445008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9812917260990549</v>
+        <v>0.9807374896495199</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>7538</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3397</v>
+        <v>3385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14480</v>
+        <v>14399</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01214432705278316</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005472151716192269</v>
+        <v>0.005452781484062767</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0233282051902635</v>
+        <v>0.02319739406066869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -5155,19 +5155,19 @@
         <v>29632</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19819</v>
+        <v>19628</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42232</v>
+        <v>41572</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04013899756275036</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02684653209242908</v>
+        <v>0.02658679992499931</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05720636691103854</v>
+        <v>0.05631198683123518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -5176,19 +5176,19 @@
         <v>37170</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27029</v>
+        <v>26577</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50983</v>
+        <v>52489</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0273523192573086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01988996313026516</v>
+        <v>0.01955693285616041</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03751658530977276</v>
+        <v>0.03862462230993092</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>613168</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>606226</v>
+        <v>606307</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>617309</v>
+        <v>617321</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9878556729472169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9766717948097352</v>
+        <v>0.9768026059393317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9945278482838077</v>
+        <v>0.9945472185159373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>671</v>
@@ -5226,19 +5226,19 @@
         <v>708612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>696012</v>
+        <v>696672</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>718425</v>
+        <v>718616</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9598610024372497</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9427936330889616</v>
+        <v>0.9436880131687653</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9731534679075711</v>
+        <v>0.9734132000750008</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1260</v>
@@ -5247,19 +5247,19 @@
         <v>1321780</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1307967</v>
+        <v>1306461</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1331921</v>
+        <v>1332373</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9726476807426914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9624834146902272</v>
+        <v>0.9613753776900691</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9801100368697349</v>
+        <v>0.9804430671438397</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5293</v>
+        <v>5387</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003244371264267329</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01843411001316159</v>
+        <v>0.01875924447293511</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -5372,19 +5372,19 @@
         <v>47255</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34509</v>
+        <v>34903</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62082</v>
+        <v>61165</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04367279062614979</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03189328605522754</v>
+        <v>0.03225734554970079</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05737568069239977</v>
+        <v>0.05652795013854581</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -5393,19 +5393,19 @@
         <v>48187</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35742</v>
+        <v>35594</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64959</v>
+        <v>63626</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03519405939360417</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02610490393864593</v>
+        <v>0.02599687281861638</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04744386055057315</v>
+        <v>0.04647056642906724</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>286213</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281852</v>
+        <v>281758</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9967556287357326</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9815658899868381</v>
+        <v>0.9812407555270647</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>1034770</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1019943</v>
+        <v>1020860</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1047516</v>
+        <v>1047122</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9563272093738502</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9426243193075999</v>
+        <v>0.9434720498614539</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9681067139447724</v>
+        <v>0.9677426544502989</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1219</v>
@@ -5464,19 +5464,19 @@
         <v>1320983</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1304211</v>
+        <v>1305544</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1333428</v>
+        <v>1333576</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9648059406063958</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9525561394494266</v>
+        <v>0.9535294335709328</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9738950960613538</v>
+        <v>0.9740031271813836</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>43343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31686</v>
+        <v>31896</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56613</v>
+        <v>59113</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01280174980604759</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00935878706599785</v>
+        <v>0.009420692089813118</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01672096234272809</v>
+        <v>0.01745939097144477</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>137</v>
@@ -5589,19 +5589,19 @@
         <v>147085</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>124641</v>
+        <v>125484</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>171545</v>
+        <v>172973</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0416482948508755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03529298522337236</v>
+        <v>0.03553171947270282</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0485742897700004</v>
+        <v>0.04897880903333008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>180</v>
@@ -5610,19 +5610,19 @@
         <v>190428</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>164021</v>
+        <v>163451</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>217392</v>
+        <v>217559</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02752918300187058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02371161321864939</v>
+        <v>0.02362917550628478</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0314271379619196</v>
+        <v>0.031451408850672</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3342379</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3329109</v>
+        <v>3326609</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3354036</v>
+        <v>3353826</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9871982501939525</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.983279037657272</v>
+        <v>0.9825406090285553</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9906412129340022</v>
+        <v>0.9905793079101869</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3189</v>
@@ -5660,19 +5660,19 @@
         <v>3384511</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3360051</v>
+        <v>3358623</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3406955</v>
+        <v>3406112</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9583517051491245</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9514257102299994</v>
+        <v>0.9510211909666699</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9647070147766275</v>
+        <v>0.9644682805272974</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6370</v>
@@ -5681,19 +5681,19 @@
         <v>6726890</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6699926</v>
+        <v>6699759</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6753297</v>
+        <v>6753867</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9724708169981294</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9685728620380808</v>
+        <v>0.9685485911493281</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9762883867813508</v>
+        <v>0.9763708244937152</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>11901</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6325</v>
+        <v>6964</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20295</v>
+        <v>20441</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02161475470060387</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01148643700383648</v>
+        <v>0.01264836818512607</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03685783317944825</v>
+        <v>0.03712369539399722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -6048,19 +6048,19 @@
         <v>23555</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15940</v>
+        <v>16471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33038</v>
+        <v>33892</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04822873698156369</v>
+        <v>0.04822873698156368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03263684337505227</v>
+        <v>0.03372310742772273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06764289073847153</v>
+        <v>0.06939199846452911</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -6069,19 +6069,19 @@
         <v>35457</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26553</v>
+        <v>26450</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48264</v>
+        <v>47215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03412504725182317</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02555596079578405</v>
+        <v>0.02545659009220935</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04645075754123053</v>
+        <v>0.0454410480480231</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>538717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>530323</v>
+        <v>530177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>544293</v>
+        <v>543654</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9783852452993961</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.963142166820552</v>
+        <v>0.9628763046060028</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9885135629961636</v>
+        <v>0.987351631814874</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>652</v>
@@ -6119,19 +6119,19 @@
         <v>464856</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>455373</v>
+        <v>454519</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>472471</v>
+        <v>471940</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9517712630184364</v>
+        <v>0.9517712630184363</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9323571092615284</v>
+        <v>0.9306080015354711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9673631566249477</v>
+        <v>0.9662768925722773</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1194</v>
@@ -6140,19 +6140,19 @@
         <v>1003572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>990765</v>
+        <v>991814</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1012476</v>
+        <v>1012579</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9658749527481769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9535492424587689</v>
+        <v>0.9545589519519768</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9744440392042157</v>
+        <v>0.9745434099077905</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>6839</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2959</v>
+        <v>3013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13167</v>
+        <v>12827</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01415303895300756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006123454046321144</v>
+        <v>0.006235499060293541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0272480163906773</v>
+        <v>0.02654526963326131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -6265,19 +6265,19 @@
         <v>13870</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8974</v>
+        <v>8903</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19997</v>
+        <v>21407</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03277939085574275</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02120709002969116</v>
+        <v>0.02103952883003079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04725762950792909</v>
+        <v>0.05058980492336477</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -6286,19 +6286,19 @@
         <v>20709</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14546</v>
+        <v>14239</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29504</v>
+        <v>29940</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02284897784774472</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01604883724024234</v>
+        <v>0.0157100739278832</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03255260502402477</v>
+        <v>0.03303349517704283</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>476373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470045</v>
+        <v>470385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>480253</v>
+        <v>480199</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9858469610469924</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9727519836093227</v>
+        <v>0.9734547303667387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9938765459536789</v>
+        <v>0.9937645009397065</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>566</v>
@@ -6336,19 +6336,19 @@
         <v>409273</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>403146</v>
+        <v>401736</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>414169</v>
+        <v>414240</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9672206091442572</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.952742370492071</v>
+        <v>0.949410195076635</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9787929099703089</v>
+        <v>0.9789604711699691</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1039</v>
@@ -6357,19 +6357,19 @@
         <v>885646</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>876851</v>
+        <v>876415</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>891809</v>
+        <v>892116</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9771510221522554</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9674473949759754</v>
+        <v>0.9669665048229574</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9839511627597578</v>
+        <v>0.9842899260721168</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>13240</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7321</v>
+        <v>7916</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22610</v>
+        <v>24380</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02807448205227342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01552273363677092</v>
+        <v>0.01678530960102572</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04794232798886634</v>
+        <v>0.05169483449136483</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -6482,19 +6482,19 @@
         <v>18060</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12129</v>
+        <v>12485</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25085</v>
+        <v>25869</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09632216898745086</v>
+        <v>0.09632216898745084</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06469157376259456</v>
+        <v>0.06658726670798645</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1337871311323214</v>
+        <v>0.1379682129491393</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -6503,19 +6503,19 @@
         <v>31300</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22290</v>
+        <v>22513</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42091</v>
+        <v>41632</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04748895826898128</v>
+        <v>0.04748895826898127</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0338189673295298</v>
+        <v>0.03415694198955364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06386100606759235</v>
+        <v>0.06316455902143962</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>458372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>449002</v>
+        <v>447232</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>464291</v>
+        <v>463696</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9719255179477266</v>
+        <v>0.9719255179477265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9520576720111343</v>
+        <v>0.9483051655086351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9844772663632293</v>
+        <v>0.983214690398974</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>261</v>
@@ -6553,19 +6553,19 @@
         <v>169437</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162412</v>
+        <v>161628</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>175368</v>
+        <v>175012</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9036778310125491</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8662128688676787</v>
+        <v>0.8620317870508607</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9353084262374053</v>
+        <v>0.9334127332920135</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>734</v>
@@ -6574,19 +6574,19 @@
         <v>627809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617018</v>
+        <v>617477</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>636819</v>
+        <v>636596</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9525110417310186</v>
+        <v>0.952511041731019</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9361389939324077</v>
+        <v>0.9368354409785604</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9661810326704703</v>
+        <v>0.9658430580104465</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>29259</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19434</v>
+        <v>19823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41893</v>
+        <v>41321</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02585044497262392</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01717009367508272</v>
+        <v>0.01751418910690561</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03701292125676873</v>
+        <v>0.03650739195351816</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -6699,19 +6699,19 @@
         <v>42077</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32701</v>
+        <v>32691</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52676</v>
+        <v>54148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04891116528635541</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0380122253389519</v>
+        <v>0.03800048331329037</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06123137459136829</v>
+        <v>0.06294162141195539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -6720,19 +6720,19 @@
         <v>71336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57697</v>
+        <v>58038</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86830</v>
+        <v>88111</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03580903299180341</v>
+        <v>0.03580903299180342</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02896267024305849</v>
+        <v>0.02913369522797895</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04358656539357764</v>
+        <v>0.04422960476740458</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1102584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1089950</v>
+        <v>1090522</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1112409</v>
+        <v>1112020</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9741495550273761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9629870787432311</v>
+        <v>0.9634926080464816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9828299063249172</v>
+        <v>0.9824858108930946</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1159</v>
@@ -6770,19 +6770,19 @@
         <v>818207</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>807608</v>
+        <v>806136</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>827583</v>
+        <v>827593</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9510888347136446</v>
+        <v>0.9510888347136444</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9387686254086315</v>
+        <v>0.9370583785880437</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9619877746610481</v>
+        <v>0.9619995166867097</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2243</v>
@@ -6791,19 +6791,19 @@
         <v>1920791</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1905297</v>
+        <v>1904016</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1934430</v>
+        <v>1934089</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9641909670081965</v>
+        <v>0.9641909670081964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9564134346064227</v>
+        <v>0.9557703952325952</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9710373297569416</v>
+        <v>0.9708663047720211</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>14146</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8632</v>
+        <v>8682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22868</v>
+        <v>23748</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0249722430454605</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01523747925679705</v>
+        <v>0.0153255359761417</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04036846585884182</v>
+        <v>0.04192157371626547</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>94</v>
@@ -6916,19 +6916,19 @@
         <v>50645</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40609</v>
+        <v>41307</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61064</v>
+        <v>61628</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06100856252566899</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0489184439610808</v>
+        <v>0.04975928321143428</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07355951399303194</v>
+        <v>0.07423975992507825</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>113</v>
@@ -6937,19 +6937,19 @@
         <v>64791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53030</v>
+        <v>53449</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77403</v>
+        <v>79383</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04639179924518558</v>
+        <v>0.04639179924518557</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03797034543345876</v>
+        <v>0.03827023052970911</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05542215844313731</v>
+        <v>0.056839667291804</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>552335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>543613</v>
+        <v>542733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>557849</v>
+        <v>557799</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9750277569545396</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9596315341411581</v>
+        <v>0.9580784262837345</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.984762520743203</v>
+        <v>0.9846744640238583</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1195</v>
@@ -6987,19 +6987,19 @@
         <v>779482</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>769063</v>
+        <v>768499</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>789518</v>
+        <v>788820</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.938991437474331</v>
+        <v>0.9389914374743309</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.926440486006968</v>
+        <v>0.925760240074922</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9510815560389192</v>
+        <v>0.9502407167885657</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1721</v>
@@ -7008,19 +7008,19 @@
         <v>1331817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1319205</v>
+        <v>1317225</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1343578</v>
+        <v>1343159</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9536082007548147</v>
+        <v>0.9536082007548143</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9445778415568629</v>
+        <v>0.9431603327081962</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9620296545665413</v>
+        <v>0.961729769470291</v>
       </c>
     </row>
     <row r="18">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9577</v>
+        <v>9943</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006976304270523699</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04036913846519392</v>
+        <v>0.04191340725407302</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -7133,19 +7133,19 @@
         <v>42427</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32976</v>
+        <v>32043</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55647</v>
+        <v>54193</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05032847206006139</v>
+        <v>0.05032847206006138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03911803517325763</v>
+        <v>0.03801128591525477</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06601073239654548</v>
+        <v>0.06428632864505364</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -7154,19 +7154,19 @@
         <v>44082</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34026</v>
+        <v>33713</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57976</v>
+        <v>58095</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04080788374797913</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03149886121008689</v>
+        <v>0.03120902807684262</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05367033733677123</v>
+        <v>0.05378035298264709</v>
       </c>
     </row>
     <row r="20">
@@ -7183,16 +7183,16 @@
         <v>235573</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227651</v>
+        <v>227285</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9930236957294764</v>
+        <v>0.9930236957294762</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9596308615348059</v>
+        <v>0.9580865927459269</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7204,19 +7204,19 @@
         <v>800566</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>787346</v>
+        <v>788800</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>810017</v>
+        <v>810950</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9496715279399386</v>
+        <v>0.9496715279399384</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9339892676034547</v>
+        <v>0.9357136713549467</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9608819648267425</v>
+        <v>0.9619887140847453</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1199</v>
@@ -7225,19 +7225,19 @@
         <v>1036139</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1022245</v>
+        <v>1022126</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1046195</v>
+        <v>1046508</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9591921162520211</v>
+        <v>0.9591921162520207</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9463296626632289</v>
+        <v>0.9462196470173537</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9685011387899132</v>
+        <v>0.9687909719231572</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>77041</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61763</v>
+        <v>61133</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95218</v>
+        <v>96009</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02238904718250307</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0179492485701803</v>
+        <v>0.01776596438197038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02767179435157264</v>
+        <v>0.0279013979191237</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>318</v>
@@ -7350,19 +7350,19 @@
         <v>190635</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>170236</v>
+        <v>168418</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>211908</v>
+        <v>213904</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05248099417405399</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04686533781530196</v>
+        <v>0.04636487943702324</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05833751780452748</v>
+        <v>0.05888692613026405</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>407</v>
@@ -7371,19 +7371,19 @@
         <v>267675</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>241623</v>
+        <v>242187</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>294016</v>
+        <v>299094</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03784227981553322</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03415917591776023</v>
+        <v>0.03423883028688382</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04156608425299107</v>
+        <v>0.04228405869386527</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3363952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3345775</v>
+        <v>3344984</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3379230</v>
+        <v>3379860</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.977610952817497</v>
+        <v>0.9776109528174969</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9723282056484274</v>
+        <v>0.9720986020808764</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9820507514298196</v>
+        <v>0.9822340356180296</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4921</v>
@@ -7421,19 +7421,19 @@
         <v>3441820</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3420547</v>
+        <v>3418551</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3462219</v>
+        <v>3464037</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9475190058259459</v>
+        <v>0.9475190058259458</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9416624821954727</v>
+        <v>0.9411130738697363</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9531346621846981</v>
+        <v>0.9536351205629766</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8130</v>
@@ -7442,19 +7442,19 @@
         <v>6805774</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6779433</v>
+        <v>6774355</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6831826</v>
+        <v>6831262</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9621577201844669</v>
+        <v>0.9621577201844668</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9584339157470088</v>
+        <v>0.9577159413061344</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9658408240822398</v>
+        <v>0.9657611697131161</v>
       </c>
     </row>
     <row r="24">
